--- a/仕様書/エネミー.xlsx
+++ b/仕様書/エネミー.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>エネミーの仕様</t>
     <rPh sb="5" eb="7">
@@ -142,22 +142,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>プレイヤーが視界４５°以内に入ったら追従モード</t>
-    <rPh sb="6" eb="8">
-      <t>シカイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>イナイ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ハイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ツイジュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>通常時は巡回モードとして指定の位置を巡回する</t>
     <rPh sb="0" eb="2">
       <t>ツウジョウ</t>
@@ -267,6 +251,142 @@
   </si>
   <si>
     <t>おばさん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通常時は指定の位置を巡回する</t>
+    <rPh sb="0" eb="2">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジュンカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>特定の時間（特売品モード）の時間になると</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>速度が二倍になる</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>トクバイヒン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ニバイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特売品モード中はプレイヤー</t>
+    <rPh sb="0" eb="3">
+      <t>トクバイヒン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーとNPC,エネミーはすべて判定あります</t>
+    <rPh sb="18" eb="20">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーからカートの攻撃を正面から受けても効かない（避ける）</t>
+    <rPh sb="11" eb="13">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ショウメン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>プレイヤーが</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>視界４５°</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>以内に入ったら追従モード</t>
+    </r>
+    <rPh sb="6" eb="8">
+      <t>シカイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イナイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ツイジュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↑変更するかも</t>
+    <rPh sb="1" eb="3">
+      <t>ヘンコウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -326,8 +446,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -755,10 +876,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -767,10 +888,13 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="D2" t="s">
-        <v>2</v>
+      <c r="A2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
@@ -783,17 +907,17 @@
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.4">
@@ -803,7 +927,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
@@ -818,12 +942,37 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
